--- a/Symphony/2021/OCTOBER/All Details/21.10.2021/MC Bank Statement October-2021.xlsx
+++ b/Symphony/2021/OCTOBER/All Details/21.10.2021/MC Bank Statement October-2021.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="3"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11310" tabRatio="803" firstSheet="1" activeTab="4"/>
   </bookViews>
   <sheets>
     <sheet name="March 2021" sheetId="7" state="hidden" r:id="rId1"/>
@@ -290,7 +290,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="243">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="244">
   <si>
     <t>Date</t>
   </si>
@@ -1019,6 +1019,9 @@
   </si>
   <si>
     <t>N.K Telecom</t>
+  </si>
+  <si>
+    <t>21.10.221</t>
   </si>
 </sst>
 </file>
@@ -3319,6 +3322,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="41" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="39" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -3350,12 +3359,6 @@
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="1" fontId="39" fillId="35" borderId="31" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="27" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="39" fillId="35" borderId="31" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="39" fillId="35" borderId="42" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
@@ -6464,67 +6467,67 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:24" ht="23.25">
-      <c r="A1" s="332" t="s">
+      <c r="A1" s="334" t="s">
         <v>16</v>
       </c>
-      <c r="B1" s="332"/>
-      <c r="C1" s="332"/>
-      <c r="D1" s="332"/>
-      <c r="E1" s="332"/>
-      <c r="F1" s="332"/>
-      <c r="G1" s="332"/>
-      <c r="H1" s="332"/>
-      <c r="I1" s="332"/>
-      <c r="J1" s="332"/>
-      <c r="K1" s="332"/>
-      <c r="L1" s="332"/>
-      <c r="M1" s="332"/>
-      <c r="N1" s="332"/>
-      <c r="O1" s="332"/>
-      <c r="P1" s="332"/>
-      <c r="Q1" s="332"/>
+      <c r="B1" s="334"/>
+      <c r="C1" s="334"/>
+      <c r="D1" s="334"/>
+      <c r="E1" s="334"/>
+      <c r="F1" s="334"/>
+      <c r="G1" s="334"/>
+      <c r="H1" s="334"/>
+      <c r="I1" s="334"/>
+      <c r="J1" s="334"/>
+      <c r="K1" s="334"/>
+      <c r="L1" s="334"/>
+      <c r="M1" s="334"/>
+      <c r="N1" s="334"/>
+      <c r="O1" s="334"/>
+      <c r="P1" s="334"/>
+      <c r="Q1" s="334"/>
     </row>
     <row r="2" spans="1:24" s="81" customFormat="1" ht="18">
-      <c r="A2" s="333" t="s">
+      <c r="A2" s="335" t="s">
         <v>156</v>
       </c>
-      <c r="B2" s="333"/>
-      <c r="C2" s="333"/>
-      <c r="D2" s="333"/>
-      <c r="E2" s="333"/>
-      <c r="F2" s="333"/>
-      <c r="G2" s="333"/>
-      <c r="H2" s="333"/>
-      <c r="I2" s="333"/>
-      <c r="J2" s="333"/>
-      <c r="K2" s="333"/>
-      <c r="L2" s="333"/>
-      <c r="M2" s="333"/>
-      <c r="N2" s="333"/>
-      <c r="O2" s="333"/>
-      <c r="P2" s="333"/>
-      <c r="Q2" s="333"/>
+      <c r="B2" s="335"/>
+      <c r="C2" s="335"/>
+      <c r="D2" s="335"/>
+      <c r="E2" s="335"/>
+      <c r="F2" s="335"/>
+      <c r="G2" s="335"/>
+      <c r="H2" s="335"/>
+      <c r="I2" s="335"/>
+      <c r="J2" s="335"/>
+      <c r="K2" s="335"/>
+      <c r="L2" s="335"/>
+      <c r="M2" s="335"/>
+      <c r="N2" s="335"/>
+      <c r="O2" s="335"/>
+      <c r="P2" s="335"/>
+      <c r="Q2" s="335"/>
     </row>
     <row r="3" spans="1:24" s="82" customFormat="1" ht="16.5" thickBot="1">
-      <c r="A3" s="334" t="s">
+      <c r="A3" s="336" t="s">
         <v>205</v>
       </c>
-      <c r="B3" s="335"/>
-      <c r="C3" s="335"/>
-      <c r="D3" s="335"/>
-      <c r="E3" s="335"/>
-      <c r="F3" s="335"/>
-      <c r="G3" s="335"/>
-      <c r="H3" s="335"/>
-      <c r="I3" s="335"/>
-      <c r="J3" s="335"/>
-      <c r="K3" s="335"/>
-      <c r="L3" s="335"/>
-      <c r="M3" s="335"/>
-      <c r="N3" s="335"/>
-      <c r="O3" s="335"/>
-      <c r="P3" s="335"/>
-      <c r="Q3" s="336"/>
+      <c r="B3" s="337"/>
+      <c r="C3" s="337"/>
+      <c r="D3" s="337"/>
+      <c r="E3" s="337"/>
+      <c r="F3" s="337"/>
+      <c r="G3" s="337"/>
+      <c r="H3" s="337"/>
+      <c r="I3" s="337"/>
+      <c r="J3" s="337"/>
+      <c r="K3" s="337"/>
+      <c r="L3" s="337"/>
+      <c r="M3" s="337"/>
+      <c r="N3" s="337"/>
+      <c r="O3" s="337"/>
+      <c r="P3" s="337"/>
+      <c r="Q3" s="338"/>
       <c r="S3" s="65"/>
       <c r="T3" s="8"/>
       <c r="U3" s="8"/>
@@ -6533,49 +6536,49 @@
       <c r="X3" s="18"/>
     </row>
     <row r="4" spans="1:24" s="83" customFormat="1" ht="12.75" customHeight="1">
-      <c r="A4" s="337" t="s">
+      <c r="A4" s="339" t="s">
         <v>44</v>
       </c>
-      <c r="B4" s="339" t="s">
+      <c r="B4" s="341" t="s">
         <v>45</v>
       </c>
-      <c r="C4" s="341" t="s">
+      <c r="C4" s="330" t="s">
         <v>46</v>
       </c>
-      <c r="D4" s="341" t="s">
+      <c r="D4" s="330" t="s">
         <v>47</v>
       </c>
-      <c r="E4" s="341" t="s">
+      <c r="E4" s="330" t="s">
         <v>48</v>
       </c>
-      <c r="F4" s="341" t="s">
+      <c r="F4" s="330" t="s">
         <v>167</v>
       </c>
-      <c r="G4" s="341" t="s">
+      <c r="G4" s="330" t="s">
         <v>49</v>
       </c>
-      <c r="H4" s="341" t="s">
+      <c r="H4" s="330" t="s">
         <v>176</v>
       </c>
-      <c r="I4" s="341" t="s">
+      <c r="I4" s="330" t="s">
         <v>172</v>
       </c>
-      <c r="J4" s="341" t="s">
+      <c r="J4" s="330" t="s">
         <v>50</v>
       </c>
-      <c r="K4" s="341" t="s">
+      <c r="K4" s="330" t="s">
         <v>51</v>
       </c>
-      <c r="L4" s="341" t="s">
+      <c r="L4" s="330" t="s">
         <v>52</v>
       </c>
-      <c r="M4" s="341" t="s">
+      <c r="M4" s="330" t="s">
         <v>53</v>
       </c>
-      <c r="N4" s="341" t="s">
+      <c r="N4" s="330" t="s">
         <v>54</v>
       </c>
-      <c r="O4" s="330" t="s">
+      <c r="O4" s="332" t="s">
         <v>55</v>
       </c>
       <c r="P4" s="343" t="s">
@@ -6591,21 +6594,21 @@
       <c r="W4" s="85"/>
     </row>
     <row r="5" spans="1:24" s="83" customFormat="1" ht="13.5" thickBot="1">
-      <c r="A5" s="338"/>
-      <c r="B5" s="340"/>
-      <c r="C5" s="342"/>
-      <c r="D5" s="342"/>
-      <c r="E5" s="342"/>
-      <c r="F5" s="342"/>
-      <c r="G5" s="342"/>
-      <c r="H5" s="342"/>
-      <c r="I5" s="342"/>
-      <c r="J5" s="342"/>
-      <c r="K5" s="342"/>
-      <c r="L5" s="342"/>
-      <c r="M5" s="342"/>
-      <c r="N5" s="342"/>
-      <c r="O5" s="331"/>
+      <c r="A5" s="340"/>
+      <c r="B5" s="342"/>
+      <c r="C5" s="331"/>
+      <c r="D5" s="331"/>
+      <c r="E5" s="331"/>
+      <c r="F5" s="331"/>
+      <c r="G5" s="331"/>
+      <c r="H5" s="331"/>
+      <c r="I5" s="331"/>
+      <c r="J5" s="331"/>
+      <c r="K5" s="331"/>
+      <c r="L5" s="331"/>
+      <c r="M5" s="331"/>
+      <c r="N5" s="331"/>
+      <c r="O5" s="333"/>
       <c r="P5" s="344"/>
       <c r="Q5" s="146" t="s">
         <v>56</v>
@@ -9774,6 +9777,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
     <mergeCell ref="L4:L5"/>
     <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
@@ -9790,9 +9796,6 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -9806,8 +9809,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:CS1357"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A107" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
-      <selection activeCell="G126" sqref="G126"/>
+    <sheetView topLeftCell="A107" zoomScale="120" zoomScaleNormal="120" workbookViewId="0">
+      <selection activeCell="D121" sqref="D121"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -12161,14 +12164,14 @@
         <v>649260</v>
       </c>
       <c r="C22" s="67">
-        <v>550</v>
+        <v>749300</v>
       </c>
       <c r="D22" s="64">
         <v>2390</v>
       </c>
       <c r="E22" s="64">
         <f t="shared" si="1"/>
-        <v>2940</v>
+        <v>751690</v>
       </c>
       <c r="F22" s="257"/>
       <c r="G22" s="278">
@@ -13295,7 +13298,7 @@
       </c>
       <c r="C33" s="314">
         <f>SUM(C5:C32)</f>
-        <v>9447961</v>
+        <v>10196711</v>
       </c>
       <c r="D33" s="313">
         <f>SUM(D5:D32)</f>
@@ -13303,11 +13306,11 @@
       </c>
       <c r="E33" s="313">
         <f>SUM(E5:E32)</f>
-        <v>9494356</v>
+        <v>10243106</v>
       </c>
       <c r="F33" s="313">
         <f>B33-E33</f>
-        <v>960834</v>
+        <v>212084</v>
       </c>
       <c r="G33" s="315"/>
       <c r="H33" s="158"/>
@@ -13619,7 +13622,7 @@
       </c>
       <c r="F36" s="203">
         <f>F33-D119+L121</f>
-        <v>642040</v>
+        <v>0</v>
       </c>
       <c r="G36" s="158"/>
       <c r="H36" s="158"/>
@@ -14719,10 +14722,10 @@
         <v>1718911905</v>
       </c>
       <c r="D46" s="233">
-        <v>690660</v>
+        <v>650660</v>
       </c>
       <c r="E46" s="205" t="s">
-        <v>239</v>
+        <v>243</v>
       </c>
       <c r="F46" s="150"/>
       <c r="G46" s="157"/>
@@ -15329,10 +15332,10 @@
         <v>1712688979</v>
       </c>
       <c r="D51" s="234">
-        <v>173300</v>
+        <v>105300</v>
       </c>
       <c r="E51" s="199" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="F51" s="151"/>
       <c r="G51" s="157"/>
@@ -15451,10 +15454,10 @@
         <v>1739791780</v>
       </c>
       <c r="D52" s="234">
-        <v>1580</v>
+        <v>2870</v>
       </c>
       <c r="E52" s="197" t="s">
-        <v>233</v>
+        <v>241</v>
       </c>
       <c r="F52" s="151"/>
       <c r="G52" s="157"/>
@@ -22954,7 +22957,7 @@
       <c r="C119" s="358"/>
       <c r="D119" s="237">
         <f>SUM(D37:D118)</f>
-        <v>2315104</v>
+        <v>2208394</v>
       </c>
       <c r="E119" s="229"/>
       <c r="F119" s="157"/>
@@ -23161,7 +23164,7 @@
       <c r="C121" s="346"/>
       <c r="D121" s="237">
         <f>D119+M121</f>
-        <v>2315104</v>
+        <v>2208394</v>
       </c>
       <c r="E121" s="229"/>
       <c r="F121" s="157"/>
@@ -34393,7 +34396,7 @@
   </sheetPr>
   <dimension ref="A1:AC220"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
       <selection activeCell="H10" sqref="H10"/>
     </sheetView>
   </sheetViews>
@@ -34619,7 +34622,7 @@
         <v>80</v>
       </c>
       <c r="E8" s="283">
-        <v>24718.817857139999</v>
+        <v>771268.81785714068</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="321"/>
@@ -34724,7 +34727,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="282">
-        <v>0</v>
+        <v>2208394</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="266"/>
@@ -34909,12 +34912,12 @@
       </c>
       <c r="E16" s="286">
         <f>E6+E7+E8+E11+E12+E13</f>
-        <v>5264064.3129761908</v>
+        <v>8219008.3129761908</v>
       </c>
       <c r="F16" s="5"/>
       <c r="G16" s="128">
         <f>B16-E16</f>
-        <v>2954944</v>
+        <v>0</v>
       </c>
       <c r="H16" s="17"/>
       <c r="I16" s="8"/>
@@ -35138,7 +35141,7 @@
         <v>22</v>
       </c>
       <c r="E22" s="325">
-        <v>173300</v>
+        <v>105300</v>
       </c>
       <c r="G22" s="37"/>
       <c r="H22" s="8"/>
@@ -35245,7 +35248,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="299">
-        <v>690660</v>
+        <v>650660</v>
       </c>
       <c r="C25" s="140"/>
       <c r="D25" s="295" t="s">

--- a/Symphony/2021/OCTOBER/All Details/21.10.2021/MC Bank Statement October-2021.xlsx
+++ b/Symphony/2021/OCTOBER/All Details/21.10.2021/MC Bank Statement October-2021.xlsx
@@ -290,7 +290,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="454" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="456" uniqueCount="245">
   <si>
     <t>Date</t>
   </si>
@@ -1022,6 +1022,9 @@
   </si>
   <si>
     <t>21.10.221</t>
+  </si>
+  <si>
+    <t>realme cash ogrim deposit</t>
   </si>
 </sst>
 </file>
@@ -5248,7 +5251,7 @@
   <dimension ref="A1:H85"/>
   <sheetViews>
     <sheetView topLeftCell="A7" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+      <selection activeCell="E27" sqref="E27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -5703,14 +5706,22 @@
     </row>
     <row r="26" spans="1:8">
       <c r="A26" s="329"/>
-      <c r="B26" s="28"/>
-      <c r="C26" s="302"/>
-      <c r="D26" s="302"/>
+      <c r="B26" s="28" t="s">
+        <v>241</v>
+      </c>
+      <c r="C26" s="302">
+        <v>700000</v>
+      </c>
+      <c r="D26" s="302">
+        <v>0</v>
+      </c>
       <c r="E26" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
-      </c>
-      <c r="F26" s="20"/>
+        <v>1204388</v>
+      </c>
+      <c r="F26" s="300" t="s">
+        <v>244</v>
+      </c>
       <c r="G26" s="2"/>
       <c r="H26" s="2"/>
     </row>
@@ -5721,7 +5732,7 @@
       <c r="D27" s="302"/>
       <c r="E27" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F27" s="20"/>
       <c r="G27" s="2"/>
@@ -5734,7 +5745,7 @@
       <c r="D28" s="302"/>
       <c r="E28" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F28" s="20"/>
       <c r="G28" s="2"/>
@@ -5747,7 +5758,7 @@
       <c r="D29" s="302"/>
       <c r="E29" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F29" s="20"/>
       <c r="G29" s="2"/>
@@ -5760,7 +5771,7 @@
       <c r="D30" s="302"/>
       <c r="E30" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F30" s="20"/>
       <c r="G30" s="2"/>
@@ -5773,7 +5784,7 @@
       <c r="D31" s="302"/>
       <c r="E31" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F31" s="20"/>
       <c r="G31" s="2"/>
@@ -5786,7 +5797,7 @@
       <c r="D32" s="302"/>
       <c r="E32" s="304">
         <f>E31+C32-D32</f>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F32" s="20"/>
       <c r="G32" s="2"/>
@@ -5799,7 +5810,7 @@
       <c r="D33" s="306"/>
       <c r="E33" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F33" s="20"/>
       <c r="G33" s="2"/>
@@ -5812,7 +5823,7 @@
       <c r="D34" s="302"/>
       <c r="E34" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F34" s="20"/>
       <c r="G34" s="2"/>
@@ -5825,7 +5836,7 @@
       <c r="D35" s="302"/>
       <c r="E35" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F35" s="20"/>
       <c r="G35" s="2"/>
@@ -5838,7 +5849,7 @@
       <c r="D36" s="302"/>
       <c r="E36" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F36" s="20"/>
       <c r="G36" s="2"/>
@@ -5851,7 +5862,7 @@
       <c r="D37" s="302"/>
       <c r="E37" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F37" s="20"/>
       <c r="G37" s="2"/>
@@ -5864,7 +5875,7 @@
       <c r="D38" s="302"/>
       <c r="E38" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F38" s="20"/>
       <c r="G38" s="2"/>
@@ -5877,7 +5888,7 @@
       <c r="D39" s="302"/>
       <c r="E39" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F39" s="20"/>
       <c r="G39" s="2"/>
@@ -5890,7 +5901,7 @@
       <c r="D40" s="302"/>
       <c r="E40" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F40" s="20"/>
       <c r="G40" s="2"/>
@@ -5903,7 +5914,7 @@
       <c r="D41" s="302"/>
       <c r="E41" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F41" s="20"/>
       <c r="G41" s="2"/>
@@ -5916,7 +5927,7 @@
       <c r="D42" s="302"/>
       <c r="E42" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F42" s="20"/>
       <c r="G42" s="2"/>
@@ -5929,7 +5940,7 @@
       <c r="D43" s="302"/>
       <c r="E43" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F43" s="20"/>
       <c r="G43" s="2"/>
@@ -5942,7 +5953,7 @@
       <c r="D44" s="302"/>
       <c r="E44" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F44" s="20"/>
       <c r="G44" s="2"/>
@@ -5955,7 +5966,7 @@
       <c r="D45" s="302"/>
       <c r="E45" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F45" s="20"/>
       <c r="G45" s="2"/>
@@ -5968,7 +5979,7 @@
       <c r="D46" s="302"/>
       <c r="E46" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F46" s="20"/>
       <c r="G46" s="2"/>
@@ -5981,7 +5992,7 @@
       <c r="D47" s="302"/>
       <c r="E47" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F47" s="20"/>
       <c r="G47" s="2"/>
@@ -5994,7 +6005,7 @@
       <c r="D48" s="302"/>
       <c r="E48" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F48" s="20"/>
       <c r="G48" s="2"/>
@@ -6007,7 +6018,7 @@
       <c r="D49" s="302"/>
       <c r="E49" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F49" s="20"/>
       <c r="G49" s="2"/>
@@ -6020,7 +6031,7 @@
       <c r="D50" s="302"/>
       <c r="E50" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F50" s="20"/>
       <c r="G50" s="2"/>
@@ -6033,7 +6044,7 @@
       <c r="D51" s="302"/>
       <c r="E51" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F51" s="20"/>
       <c r="G51" s="2"/>
@@ -6046,7 +6057,7 @@
       <c r="D52" s="302"/>
       <c r="E52" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F52" s="20"/>
       <c r="G52" s="2"/>
@@ -6059,7 +6070,7 @@
       <c r="D53" s="302"/>
       <c r="E53" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F53" s="20"/>
       <c r="G53" s="2"/>
@@ -6072,7 +6083,7 @@
       <c r="D54" s="302"/>
       <c r="E54" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F54" s="20"/>
       <c r="G54" s="2"/>
@@ -6085,7 +6096,7 @@
       <c r="D55" s="302"/>
       <c r="E55" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F55" s="20"/>
       <c r="G55" s="2"/>
@@ -6097,7 +6108,7 @@
       <c r="D56" s="302"/>
       <c r="E56" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F56" s="20"/>
       <c r="G56" s="2"/>
@@ -6109,7 +6120,7 @@
       <c r="D57" s="302"/>
       <c r="E57" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F57" s="20"/>
       <c r="G57" s="2"/>
@@ -6121,7 +6132,7 @@
       <c r="D58" s="302"/>
       <c r="E58" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F58" s="20"/>
       <c r="G58" s="2"/>
@@ -6133,7 +6144,7 @@
       <c r="D59" s="302"/>
       <c r="E59" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F59" s="20"/>
       <c r="G59" s="2"/>
@@ -6145,7 +6156,7 @@
       <c r="D60" s="302"/>
       <c r="E60" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F60" s="20"/>
       <c r="G60" s="2"/>
@@ -6157,7 +6168,7 @@
       <c r="D61" s="302"/>
       <c r="E61" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F61" s="20"/>
       <c r="G61" s="2"/>
@@ -6169,7 +6180,7 @@
       <c r="D62" s="302"/>
       <c r="E62" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F62" s="20"/>
       <c r="G62" s="2"/>
@@ -6181,7 +6192,7 @@
       <c r="D63" s="302"/>
       <c r="E63" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F63" s="20"/>
       <c r="G63" s="2"/>
@@ -6193,7 +6204,7 @@
       <c r="D64" s="302"/>
       <c r="E64" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F64" s="20"/>
       <c r="G64" s="2"/>
@@ -6205,7 +6216,7 @@
       <c r="D65" s="302"/>
       <c r="E65" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F65" s="20"/>
       <c r="G65" s="2"/>
@@ -6217,7 +6228,7 @@
       <c r="D66" s="302"/>
       <c r="E66" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F66" s="20"/>
       <c r="G66" s="2"/>
@@ -6229,7 +6240,7 @@
       <c r="D67" s="302"/>
       <c r="E67" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F67" s="20"/>
       <c r="G67" s="2"/>
@@ -6241,7 +6252,7 @@
       <c r="D68" s="302"/>
       <c r="E68" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F68" s="20"/>
       <c r="G68" s="2"/>
@@ -6253,7 +6264,7 @@
       <c r="D69" s="302"/>
       <c r="E69" s="304">
         <f t="shared" si="0"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F69" s="20"/>
       <c r="G69" s="2"/>
@@ -6265,7 +6276,7 @@
       <c r="D70" s="302"/>
       <c r="E70" s="304">
         <f t="shared" ref="E70:E82" si="1">E69+C70-D70</f>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F70" s="20"/>
       <c r="G70" s="2"/>
@@ -6277,7 +6288,7 @@
       <c r="D71" s="302"/>
       <c r="E71" s="304">
         <f t="shared" si="1"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F71" s="20"/>
       <c r="G71" s="2"/>
@@ -6289,7 +6300,7 @@
       <c r="D72" s="302"/>
       <c r="E72" s="304">
         <f t="shared" si="1"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F72" s="20"/>
       <c r="G72" s="2"/>
@@ -6301,7 +6312,7 @@
       <c r="D73" s="302"/>
       <c r="E73" s="304">
         <f t="shared" si="1"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F73" s="20"/>
       <c r="G73" s="2"/>
@@ -6313,7 +6324,7 @@
       <c r="D74" s="302"/>
       <c r="E74" s="304">
         <f t="shared" si="1"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F74" s="20"/>
       <c r="G74" s="2"/>
@@ -6325,7 +6336,7 @@
       <c r="D75" s="302"/>
       <c r="E75" s="304">
         <f t="shared" si="1"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F75" s="22"/>
       <c r="G75" s="2"/>
@@ -6337,7 +6348,7 @@
       <c r="D76" s="302"/>
       <c r="E76" s="304">
         <f t="shared" si="1"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F76" s="20"/>
       <c r="G76" s="2"/>
@@ -6349,7 +6360,7 @@
       <c r="D77" s="302"/>
       <c r="E77" s="304">
         <f t="shared" si="1"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F77" s="20"/>
       <c r="G77" s="2"/>
@@ -6361,7 +6372,7 @@
       <c r="D78" s="302"/>
       <c r="E78" s="304">
         <f t="shared" si="1"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F78" s="20"/>
       <c r="G78" s="2"/>
@@ -6373,7 +6384,7 @@
       <c r="D79" s="302"/>
       <c r="E79" s="304">
         <f t="shared" si="1"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F79" s="20"/>
       <c r="G79" s="2"/>
@@ -6385,7 +6396,7 @@
       <c r="D80" s="302"/>
       <c r="E80" s="304">
         <f t="shared" si="1"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F80" s="20"/>
       <c r="G80" s="2"/>
@@ -6397,7 +6408,7 @@
       <c r="D81" s="302"/>
       <c r="E81" s="304">
         <f t="shared" si="1"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F81" s="20"/>
       <c r="G81" s="2"/>
@@ -6409,7 +6420,7 @@
       <c r="D82" s="302"/>
       <c r="E82" s="304">
         <f t="shared" si="1"/>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F82" s="20"/>
       <c r="G82" s="2"/>
@@ -6419,7 +6430,7 @@
       <c r="B83" s="33"/>
       <c r="C83" s="304">
         <f>SUM(C5:C72)</f>
-        <v>11375484</v>
+        <v>12075484</v>
       </c>
       <c r="D83" s="304">
         <f>SUM(D5:D77)</f>
@@ -6427,7 +6438,7 @@
       </c>
       <c r="E83" s="308">
         <f>E71</f>
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F83" s="21"/>
       <c r="G83" s="2"/>
@@ -9777,11 +9788,6 @@
     </row>
   </sheetData>
   <mergeCells count="19">
-    <mergeCell ref="I4:I5"/>
-    <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9796,6 +9802,11 @@
     <mergeCell ref="P4:P5"/>
     <mergeCell ref="G4:G5"/>
     <mergeCell ref="H4:H5"/>
+    <mergeCell ref="I4:I5"/>
+    <mergeCell ref="J4:J5"/>
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -12164,14 +12175,14 @@
         <v>649260</v>
       </c>
       <c r="C22" s="67">
-        <v>749300</v>
+        <v>759300</v>
       </c>
       <c r="D22" s="64">
         <v>2390</v>
       </c>
       <c r="E22" s="64">
         <f t="shared" si="1"/>
-        <v>751690</v>
+        <v>761690</v>
       </c>
       <c r="F22" s="257"/>
       <c r="G22" s="278">
@@ -13298,7 +13309,7 @@
       </c>
       <c r="C33" s="314">
         <f>SUM(C5:C32)</f>
-        <v>10196711</v>
+        <v>10206711</v>
       </c>
       <c r="D33" s="313">
         <f>SUM(D5:D32)</f>
@@ -13306,11 +13317,11 @@
       </c>
       <c r="E33" s="313">
         <f>SUM(E5:E32)</f>
-        <v>10243106</v>
+        <v>10253106</v>
       </c>
       <c r="F33" s="313">
         <f>B33-E33</f>
-        <v>212084</v>
+        <v>202084</v>
       </c>
       <c r="G33" s="315"/>
       <c r="H33" s="158"/>
@@ -14722,7 +14733,7 @@
         <v>1718911905</v>
       </c>
       <c r="D46" s="233">
-        <v>650660</v>
+        <v>640660</v>
       </c>
       <c r="E46" s="205" t="s">
         <v>243</v>
@@ -22957,7 +22968,7 @@
       <c r="C119" s="358"/>
       <c r="D119" s="237">
         <f>SUM(D37:D118)</f>
-        <v>2208394</v>
+        <v>2198394</v>
       </c>
       <c r="E119" s="229"/>
       <c r="F119" s="157"/>
@@ -23164,7 +23175,7 @@
       <c r="C121" s="346"/>
       <c r="D121" s="237">
         <f>D119+M121</f>
-        <v>2208394</v>
+        <v>2198394</v>
       </c>
       <c r="E121" s="229"/>
       <c r="F121" s="157"/>
@@ -34397,7 +34408,7 @@
   <dimension ref="A1:AC220"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="H10" sqref="H10"/>
+      <selection activeCell="G5" sqref="G5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
@@ -34587,7 +34598,7 @@
         <v>21</v>
       </c>
       <c r="E7" s="282">
-        <v>504388</v>
+        <v>1204388</v>
       </c>
       <c r="F7" s="8"/>
       <c r="G7" s="321"/>
@@ -34622,7 +34633,7 @@
         <v>80</v>
       </c>
       <c r="E8" s="283">
-        <v>771268.81785714068</v>
+        <v>81268.817857140675</v>
       </c>
       <c r="F8" s="8"/>
       <c r="G8" s="321"/>
@@ -34727,7 +34738,7 @@
         <v>12</v>
       </c>
       <c r="E11" s="282">
-        <v>2208394</v>
+        <v>2198394</v>
       </c>
       <c r="F11" s="8"/>
       <c r="G11" s="266"/>
@@ -35248,7 +35259,7 @@
         <v>18</v>
       </c>
       <c r="B25" s="299">
-        <v>650660</v>
+        <v>640660</v>
       </c>
       <c r="C25" s="140"/>
       <c r="D25" s="295" t="s">

--- a/Symphony/2021/OCTOBER/All Details/21.10.2021/MC Bank Statement October-2021.xlsx
+++ b/Symphony/2021/OCTOBER/All Details/21.10.2021/MC Bank Statement October-2021.xlsx
@@ -9788,6 +9788,9 @@
     </row>
   </sheetData>
   <mergeCells count="19">
+    <mergeCell ref="K4:K5"/>
+    <mergeCell ref="L4:L5"/>
+    <mergeCell ref="M4:M5"/>
     <mergeCell ref="N4:N5"/>
     <mergeCell ref="O4:O5"/>
     <mergeCell ref="A1:Q1"/>
@@ -9804,9 +9807,6 @@
     <mergeCell ref="H4:H5"/>
     <mergeCell ref="I4:I5"/>
     <mergeCell ref="J4:J5"/>
-    <mergeCell ref="K4:K5"/>
-    <mergeCell ref="L4:L5"/>
-    <mergeCell ref="M4:M5"/>
   </mergeCells>
   <printOptions horizontalCentered="1"/>
   <pageMargins left="0" right="0" top="0.39370078740157483" bottom="0" header="0" footer="0"/>
@@ -34407,8 +34407,8 @@
   </sheetPr>
   <dimension ref="A1:AC220"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="G5" sqref="G5"/>
+    <sheetView tabSelected="1" topLeftCell="A12" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="H22" sqref="G21:H22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="12.75"/>
